--- a/modelos/OBABEB4461039/OBABEB4461039_Sell in_metricas.xlsx
+++ b/modelos/OBABEB4461039/OBABEB4461039_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45013</v>
       </c>
       <c r="B2" t="n">
-        <v>33.19889058783756</v>
+        <v>33.99208807959722</v>
       </c>
       <c r="C2" t="n">
-        <v>11.45525077948027</v>
+        <v>11.09499658727629</v>
       </c>
       <c r="D2" t="n">
-        <v>54.14278099458775</v>
+        <v>58.87295798863092</v>
       </c>
       <c r="E2" t="n">
         <v>40</v>
@@ -496,13 +496,13 @@
         <v>45020</v>
       </c>
       <c r="B3" t="n">
-        <v>34.02000602579677</v>
+        <v>34.72674050123099</v>
       </c>
       <c r="C3" t="n">
-        <v>12.44342784496064</v>
+        <v>11.43229749057546</v>
       </c>
       <c r="D3" t="n">
-        <v>54.81603661651053</v>
+        <v>57.09698449192516</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -516,13 +516,13 @@
         <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>31.4349168598683</v>
+        <v>32.15440561018479</v>
       </c>
       <c r="C4" t="n">
-        <v>10.54128965982381</v>
+        <v>11.00586544655613</v>
       </c>
       <c r="D4" t="n">
-        <v>53.53519233000934</v>
+        <v>55.74493026244077</v>
       </c>
       <c r="E4" t="n">
         <v>40</v>
@@ -536,13 +536,13 @@
         <v>45034</v>
       </c>
       <c r="B5" t="n">
-        <v>32.32160999010952</v>
+        <v>33.06863477452812</v>
       </c>
       <c r="C5" t="n">
-        <v>9.284115478070044</v>
+        <v>11.31851821630071</v>
       </c>
       <c r="D5" t="n">
-        <v>55.35514083507818</v>
+        <v>55.77001134120871</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
@@ -556,13 +556,13 @@
         <v>45040</v>
       </c>
       <c r="B6" t="n">
-        <v>19.91801637486843</v>
+        <v>21.51437703130237</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.09920609840384</v>
+        <v>-0.2099899387419433</v>
       </c>
       <c r="D6" t="n">
-        <v>42.3037537030796</v>
+        <v>42.86996895810296</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
@@ -576,13 +576,13 @@
         <v>45048</v>
       </c>
       <c r="B7" t="n">
-        <v>32.09013419778674</v>
+        <v>32.82511604479882</v>
       </c>
       <c r="C7" t="n">
-        <v>11.60442197804671</v>
+        <v>12.59170093848772</v>
       </c>
       <c r="D7" t="n">
-        <v>52.62910389986694</v>
+        <v>55.43890849919743</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -596,13 +596,13 @@
         <v>45055</v>
       </c>
       <c r="B8" t="n">
-        <v>29.79140115346656</v>
+        <v>30.62984678248951</v>
       </c>
       <c r="C8" t="n">
-        <v>6.448121396186354</v>
+        <v>8.051629292264311</v>
       </c>
       <c r="D8" t="n">
-        <v>51.58041404208154</v>
+        <v>52.4099486089566</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -616,13 +616,13 @@
         <v>45062</v>
       </c>
       <c r="B9" t="n">
-        <v>27.7915625925075</v>
+        <v>28.6316871502825</v>
       </c>
       <c r="C9" t="n">
-        <v>5.767511779109919</v>
+        <v>6.166168785114337</v>
       </c>
       <c r="D9" t="n">
-        <v>50.00407304611825</v>
+        <v>49.96572555650913</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -697,22 +697,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006721314789713903</v>
+        <v>2.293337792936169</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08198362513157065</v>
+        <v>1.514377031302367</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08198362513157065</v>
+        <v>1.514377031302367</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004099181256578532</v>
+        <v>0.07571885156511833</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004099181256578532</v>
+        <v>0.07571885156511833</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004107600155361721</v>
+        <v>0.07295675087021092</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -723,22 +723,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>271.1685126908342</v>
+        <v>287.4561198515723</v>
       </c>
       <c r="C3" t="n">
-        <v>16.46719504623766</v>
+        <v>16.95453095345231</v>
       </c>
       <c r="D3" t="n">
-        <v>14.4829866445659</v>
+        <v>14.81936165193542</v>
       </c>
       <c r="E3" t="n">
-        <v>1.261550315776204</v>
+        <v>1.304280647350462</v>
       </c>
       <c r="F3" t="n">
-        <v>1.77915625925075</v>
+        <v>1.86316871502825</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6539188332231634</v>
+        <v>0.6612718362146768</v>
       </c>
       <c r="H3" t="n">
         <v>0.7142857142857144</v>

--- a/modelos/OBABEB4461039/OBABEB4461039_Sell in_metricas.xlsx
+++ b/modelos/OBABEB4461039/OBABEB4461039_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45013</v>
       </c>
       <c r="B2" t="n">
-        <v>33.99208807959722</v>
+        <v>33.1179600211136</v>
       </c>
       <c r="C2" t="n">
-        <v>11.09499658727629</v>
+        <v>11.20689751488613</v>
       </c>
       <c r="D2" t="n">
-        <v>58.87295798863092</v>
+        <v>54.91157719920442</v>
       </c>
       <c r="E2" t="n">
         <v>40</v>
@@ -496,13 +496,13 @@
         <v>45020</v>
       </c>
       <c r="B3" t="n">
-        <v>34.72674050123099</v>
+        <v>33.82950656562713</v>
       </c>
       <c r="C3" t="n">
-        <v>11.43229749057546</v>
+        <v>11.10191966228114</v>
       </c>
       <c r="D3" t="n">
-        <v>57.09698449192516</v>
+        <v>55.96146207643213</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -516,13 +516,13 @@
         <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>32.15440561018479</v>
+        <v>31.20111834208558</v>
       </c>
       <c r="C4" t="n">
-        <v>11.00586544655613</v>
+        <v>8.313132542777097</v>
       </c>
       <c r="D4" t="n">
-        <v>55.74493026244077</v>
+        <v>53.51271339068367</v>
       </c>
       <c r="E4" t="n">
         <v>40</v>
@@ -536,13 +536,13 @@
         <v>45034</v>
       </c>
       <c r="B5" t="n">
-        <v>33.06863477452812</v>
+        <v>32.27156319163075</v>
       </c>
       <c r="C5" t="n">
-        <v>11.31851821630071</v>
+        <v>10.68021308648743</v>
       </c>
       <c r="D5" t="n">
-        <v>55.77001134120871</v>
+        <v>53.14267419586005</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
@@ -556,13 +556,13 @@
         <v>45040</v>
       </c>
       <c r="B6" t="n">
-        <v>21.51437703130237</v>
+        <v>20.00491556772035</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2099899387419433</v>
+        <v>-2.716116528408576</v>
       </c>
       <c r="D6" t="n">
-        <v>42.86996895810296</v>
+        <v>42.01581726721521</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
@@ -576,13 +576,13 @@
         <v>45048</v>
       </c>
       <c r="B7" t="n">
-        <v>32.82511604479882</v>
+        <v>32.04663126292115</v>
       </c>
       <c r="C7" t="n">
-        <v>12.59170093848772</v>
+        <v>11.07838493032854</v>
       </c>
       <c r="D7" t="n">
-        <v>55.43890849919743</v>
+        <v>54.72099903165957</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -596,13 +596,13 @@
         <v>45055</v>
       </c>
       <c r="B8" t="n">
-        <v>30.62984678248951</v>
+        <v>29.70358017197221</v>
       </c>
       <c r="C8" t="n">
-        <v>8.051629292264311</v>
+        <v>8.825459065694085</v>
       </c>
       <c r="D8" t="n">
-        <v>52.4099486089566</v>
+        <v>50.821494601357</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -616,13 +616,13 @@
         <v>45062</v>
       </c>
       <c r="B9" t="n">
-        <v>28.6316871502825</v>
+        <v>27.90722856732142</v>
       </c>
       <c r="C9" t="n">
-        <v>6.166168785114337</v>
+        <v>6.988470539328239</v>
       </c>
       <c r="D9" t="n">
-        <v>49.96572555650913</v>
+        <v>49.7331777307587</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -697,22 +697,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>2.293337792936169</v>
+        <v>2.416280601337593e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>1.514377031302367</v>
+        <v>0.004915567720352954</v>
       </c>
       <c r="D2" t="n">
-        <v>1.514377031302367</v>
+        <v>0.004915567720352954</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07571885156511833</v>
+        <v>0.0002457783860176477</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07571885156511833</v>
+        <v>0.0002457783860176477</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07295675087021092</v>
+        <v>0.0002457481862213596</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -723,22 +723,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>287.4561198515723</v>
+        <v>270.3917188278074</v>
       </c>
       <c r="C3" t="n">
-        <v>16.95453095345231</v>
+        <v>16.44359202935318</v>
       </c>
       <c r="D3" t="n">
-        <v>14.81936165193542</v>
+        <v>14.49134734232479</v>
       </c>
       <c r="E3" t="n">
-        <v>1.304280647350462</v>
+        <v>1.259490924394082</v>
       </c>
       <c r="F3" t="n">
-        <v>1.86316871502825</v>
+        <v>1.790722856732142</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6612718362146768</v>
+        <v>0.6545331121664737</v>
       </c>
       <c r="H3" t="n">
         <v>0.7142857142857144</v>

--- a/modelos/OBABEB4461039/OBABEB4461039_Sell in_metricas.xlsx
+++ b/modelos/OBABEB4461039/OBABEB4461039_Sell in_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>33.1179600211136</v>
       </c>
       <c r="C2" t="n">
-        <v>11.20689751488613</v>
+        <v>10.57571112999215</v>
       </c>
       <c r="D2" t="n">
-        <v>54.91157719920442</v>
+        <v>56.21170702648523</v>
       </c>
       <c r="E2" t="n">
         <v>40</v>
@@ -499,10 +499,10 @@
         <v>33.82950656562713</v>
       </c>
       <c r="C3" t="n">
-        <v>11.10191966228114</v>
+        <v>12.47356397798997</v>
       </c>
       <c r="D3" t="n">
-        <v>55.96146207643213</v>
+        <v>56.78357097130026</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -519,10 +519,10 @@
         <v>31.20111834208558</v>
       </c>
       <c r="C4" t="n">
-        <v>8.313132542777097</v>
+        <v>9.36860380981277</v>
       </c>
       <c r="D4" t="n">
-        <v>53.51271339068367</v>
+        <v>54.53515898618625</v>
       </c>
       <c r="E4" t="n">
         <v>40</v>
@@ -539,10 +539,10 @@
         <v>32.27156319163075</v>
       </c>
       <c r="C5" t="n">
-        <v>10.68021308648743</v>
+        <v>9.772410329609153</v>
       </c>
       <c r="D5" t="n">
-        <v>53.14267419586005</v>
+        <v>54.72181394797611</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
@@ -559,10 +559,10 @@
         <v>20.00491556772035</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.716116528408576</v>
+        <v>-2.480790198116751</v>
       </c>
       <c r="D6" t="n">
-        <v>42.01581726721521</v>
+        <v>42.48836676590276</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
@@ -579,10 +579,10 @@
         <v>32.04663126292115</v>
       </c>
       <c r="C7" t="n">
-        <v>11.07838493032854</v>
+        <v>11.70617275461856</v>
       </c>
       <c r="D7" t="n">
-        <v>54.72099903165957</v>
+        <v>52.90606957896092</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -599,10 +599,10 @@
         <v>29.70358017197221</v>
       </c>
       <c r="C8" t="n">
-        <v>8.825459065694085</v>
+        <v>9.339025462208907</v>
       </c>
       <c r="D8" t="n">
-        <v>50.821494601357</v>
+        <v>51.58480831862398</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>27.90722856732142</v>
       </c>
       <c r="C9" t="n">
-        <v>6.988470539328239</v>
+        <v>4.874454355124171</v>
       </c>
       <c r="D9" t="n">
-        <v>49.7331777307587</v>
+        <v>50.06666928048534</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
